--- a/hologenx/network/aging_network.xlsx
+++ b/hologenx/network/aging_network.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4965" yWindow="1815" windowWidth="32085" windowHeight="17640" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4965" yWindow="1815" windowWidth="32085" windowHeight="17640" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="edges" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -43,29 +43,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -84,8 +98,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -467,8 +483,8 @@
   </sheetPr>
   <dimension ref="A1:O132"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -4984,7 +5000,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -5046,7 +5062,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -5108,7 +5124,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -5170,7 +5186,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -5232,7 +5248,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -5294,7 +5310,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -5356,7 +5372,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -5418,7 +5434,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -5480,7 +5496,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -5542,7 +5558,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -5604,7 +5620,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -5666,7 +5682,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -5728,7 +5744,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -5790,7 +5806,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -5852,7 +5868,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -5914,7 +5930,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -5976,7 +5992,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -6038,7 +6054,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -6100,7 +6116,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -6162,7 +6178,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -6224,7 +6240,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -6286,7 +6302,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -6348,7 +6364,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -6410,7 +6426,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -6472,7 +6488,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -6534,7 +6550,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -6596,7 +6612,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -6658,7 +6674,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -6720,7 +6736,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -6782,7 +6798,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -6844,7 +6860,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -6906,7 +6922,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -6968,7 +6984,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -7030,7 +7046,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -7092,7 +7108,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -7154,7 +7170,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F108" t="n">
@@ -7216,7 +7232,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -7278,7 +7294,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -7340,7 +7356,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -7402,7 +7418,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -7464,7 +7480,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -7526,7 +7542,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -7588,7 +7604,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -7650,7 +7666,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -7712,7 +7728,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -7774,7 +7790,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -7836,7 +7852,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F119" t="n">
@@ -7898,7 +7914,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F120" t="n">
@@ -7960,7 +7976,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -8022,7 +8038,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -8084,7 +8100,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -8146,7 +8162,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -8208,7 +8224,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -8270,7 +8286,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -8332,7 +8348,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F127" t="n">
@@ -8394,7 +8410,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -8456,7 +8472,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -8518,7 +8534,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -8580,7 +8596,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -8642,7 +8658,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -8799,10 +8815,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>400.7953289219266</v>
+        <v>400.795328921926</v>
       </c>
       <c r="J2" t="n">
-        <v>295.8487582303158</v>
+        <v>295.848758230315</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
@@ -8845,10 +8861,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-222.0700434055714</v>
+        <v>-222.070043405571</v>
       </c>
       <c r="J3" t="n">
-        <v>-352.5526299479088</v>
+        <v>-352.552629947908</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
@@ -8891,10 +8907,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-1196.766615274177</v>
+        <v>-1196.76661527417</v>
       </c>
       <c r="J4" t="n">
-        <v>-114.5368956650488</v>
+        <v>-114.536895665048</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
@@ -8937,10 +8953,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-733.8984484525788</v>
+        <v>-733.898448452578</v>
       </c>
       <c r="J5" t="n">
-        <v>-185.9897705047897</v>
+        <v>-185.989770504789</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
@@ -8983,10 +8999,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-699.8940437069933</v>
+        <v>-699.894043706993</v>
       </c>
       <c r="J6" t="n">
-        <v>-398.85115607385</v>
+        <v>-398.851156073849</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
@@ -9029,10 +9045,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-182.536807138614</v>
+        <v>-168.1487933451769</v>
       </c>
       <c r="J7" t="n">
-        <v>336.4089038512609</v>
+        <v>372.3789383348528</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
@@ -9075,10 +9091,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-538.5706207549375</v>
+        <v>-538.570620754937</v>
       </c>
       <c r="J8" t="n">
-        <v>294.7327457410898</v>
+        <v>294.732745741089</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -9121,10 +9137,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-335.20533471879</v>
+        <v>-335.205334718789</v>
       </c>
       <c r="J9" t="n">
-        <v>-38.88087421285579</v>
+        <v>-38.8808742128557</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
@@ -9167,10 +9183,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>554.0984275942699</v>
+        <v>554.098427594269</v>
       </c>
       <c r="J10" t="n">
-        <v>3.018148312390105</v>
+        <v>3.0181483123901</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
@@ -9213,10 +9229,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>29.99631186617884</v>
+        <v>29.9963118661788</v>
       </c>
       <c r="J11" t="n">
-        <v>319.9883652565288</v>
+        <v>319.988365256528</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
@@ -9259,10 +9275,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>15.84457791176088</v>
+        <v>28.43408998101827</v>
       </c>
       <c r="J12" t="n">
-        <v>149.9531548767369</v>
+        <v>139.1621445316582</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
@@ -9305,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>286.7514885176772</v>
+        <v>286.751488517677</v>
       </c>
       <c r="J13" t="n">
-        <v>-282.1344885701336</v>
+        <v>-282.134488570133</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
@@ -9351,7 +9367,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-1687.847157746696</v>
+        <v>-1687.84715774669</v>
       </c>
       <c r="J14" t="n">
         <v>301.367246460556</v>
@@ -9397,10 +9413,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-1932.889954907634</v>
+        <v>-1932.88995490763</v>
       </c>
       <c r="J15" t="n">
-        <v>-320.5562125504827</v>
+        <v>-320.556212550482</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
@@ -9443,10 +9459,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-497.5297398427714</v>
+        <v>-497.529739842771</v>
       </c>
       <c r="J16" t="n">
-        <v>-200.7513290568097</v>
+        <v>-200.751329056809</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
@@ -9489,10 +9505,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-22.87253855694523</v>
+        <v>-22.8725385569452</v>
       </c>
       <c r="J17" t="n">
-        <v>-102.4703230986344</v>
+        <v>-102.470323098634</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
@@ -9535,10 +9551,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-603.5841144271676</v>
+        <v>-603.584114427167</v>
       </c>
       <c r="J18" t="n">
-        <v>33.70300991865135</v>
+        <v>33.7030099186513</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
@@ -9581,10 +9597,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-617.3960407788729</v>
+        <v>-617.396040778872</v>
       </c>
       <c r="J19" t="n">
-        <v>378.4990828532759</v>
+        <v>378.499082853275</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
@@ -9627,10 +9643,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>183.4231973668192</v>
+        <v>167.2366818492023</v>
       </c>
       <c r="J20" t="n">
-        <v>453.9408265963213</v>
+        <v>356.8217334906205</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
@@ -9673,10 +9689,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-1294.063887148831</v>
+        <v>-1034.423074980482</v>
       </c>
       <c r="J21" t="n">
-        <v>-113.8980211477069</v>
+        <v>203.4624597576566</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
@@ -9719,10 +9735,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-1259.972417072202</v>
+        <v>-1259.9724170722</v>
       </c>
       <c r="J22" t="n">
-        <v>-281.4670910627003</v>
+        <v>-281.4670910627</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
@@ -9765,10 +9781,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-1199.812825485852</v>
+        <v>-1110.098487647594</v>
       </c>
       <c r="J23" t="n">
-        <v>-398.669147223796</v>
+        <v>-423.7590989899766</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
@@ -9811,10 +9827,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>734.0787958707078</v>
+        <v>794.9228766421915</v>
       </c>
       <c r="J24" t="n">
-        <v>364.6145421796697</v>
+        <v>-460.4587827111723</v>
       </c>
       <c r="K24" t="b">
         <v>0</v>
@@ -9857,10 +9873,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>181.6932505807453</v>
+        <v>556.123120869119</v>
       </c>
       <c r="J25" t="n">
-        <v>-664.0462367047696</v>
+        <v>-639.0528006471725</v>
       </c>
       <c r="K25" t="b">
         <v>0</v>
@@ -9903,10 +9919,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-274.7841904233217</v>
+        <v>-445.4080489962435</v>
       </c>
       <c r="J26" t="n">
-        <v>625.175983385069</v>
+        <v>489.6948485026168</v>
       </c>
       <c r="K26" t="b">
         <v>0</v>
@@ -9949,10 +9965,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-338.5800860799095</v>
+        <v>-902.335151067162</v>
       </c>
       <c r="J27" t="n">
-        <v>606.5834978856287</v>
+        <v>335.5907704149193</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
@@ -9995,10 +10011,10 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>535.3826188571034</v>
+        <v>569.5541516165162</v>
       </c>
       <c r="J28" t="n">
-        <v>643.7683844530999</v>
+        <v>494.492741346189</v>
       </c>
       <c r="K28" t="b">
         <v>0</v>
@@ -10041,10 +10057,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-1309.045475333198</v>
+        <v>-1290.998916984857</v>
       </c>
       <c r="J29" t="n">
-        <v>-59.6084857674164</v>
+        <v>-274.9242734717819</v>
       </c>
       <c r="K29" t="b">
         <v>0</v>
@@ -10087,10 +10103,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>563.831570050178</v>
+        <v>560.2345666018188</v>
       </c>
       <c r="J30" t="n">
-        <v>617.766548342461</v>
+        <v>443.311881097036</v>
       </c>
       <c r="K30" t="b">
         <v>0</v>
@@ -10133,10 +10149,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-1245.622014901845</v>
+        <v>-1245.62201490184</v>
       </c>
       <c r="J31" t="n">
-        <v>164.9370874937198</v>
+        <v>164.937087493719</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
@@ -10179,10 +10195,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-181.456911003188</v>
+        <v>-74.93165388002801</v>
       </c>
       <c r="J32" t="n">
-        <v>654.9383825042873</v>
+        <v>569.5095506057542</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
@@ -10225,10 +10241,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>765.8437318211288</v>
+        <v>869.4884461341112</v>
       </c>
       <c r="J33" t="n">
-        <v>234.5364974853344</v>
+        <v>-180.3088538881865</v>
       </c>
       <c r="K33" t="b">
         <v>0</v>
@@ -10274,7 +10290,7 @@
         <v>-1561.41256909028</v>
       </c>
       <c r="J34" t="n">
-        <v>16.65698167520512</v>
+        <v>16.6569816752051</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>

--- a/hologenx/network/aging_network.xlsx
+++ b/hologenx/network/aging_network.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamas\PycharmProjects\chat_gpt_projects\hologenx\network\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\00_obsidian\SB\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B74091A-CAC3-4308-97CD-E324AE185076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912DF707-42E9-42FA-874E-447F61EE81DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1935" yWindow="2385" windowWidth="32085" windowHeight="17640" xr2:uid="{11EA1B92-A0E6-473F-8D10-B6FAD954194A}"/>
   </bookViews>
@@ -8109,8 +8109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D62F782E-FB90-4293-B1BF-2FD394D2A53C}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
